--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/11_Aydın_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/11_Aydın_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{540E572B-DA68-4443-8378-3D15D6EE79CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC951376-2283-4E6B-8246-D5EF304310EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{E7842F31-44E8-4642-914A-6DD5CCB52E31}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{7CA416C5-AC2E-44E3-8657-AE50B996DFE7}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="141" r:id="rId1"/>
@@ -809,13 +809,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{3035E381-FAC1-45FB-9945-F479394A1AC3}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{E2FF9CF2-4849-4C0D-8E05-692B93BBB15A}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{F3DFE97F-AEDB-43BF-AAEB-AA39C4C92B2A}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{AD518A3D-83F2-46EC-B32B-09DC4C3E3D8D}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{6D6621F5-B23A-4ABD-887F-BB6B6AF0BD37}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{E5E81F89-5D5A-4052-BA85-490013DF7B8F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{174EA60C-C446-49BE-A238-23A8A7D12F51}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{7F356852-F270-4BB5-8C22-F8BFA68556C7}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{967BC93A-229A-4E67-B666-CC9BC9E073C8}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{77473A70-52C6-4F78-9E93-DF539882AB22}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{428953F3-C279-4748-8441-40B470DF9707}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{FC2ED0A6-0FCE-492B-BE5B-9C3C36FC6C1B}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{39D70107-9C25-4A6A-B553-64D2CF8DA970}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{15205C30-A414-4C0A-B45D-3D4E088989C3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1185,7 +1185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F634400-6759-4B92-9797-085ABA33C8D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84FF597-A18C-4234-B035-EF26DB2AF774}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2474,7 +2474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E885099-AA5C-477E-AAC5-19D1FB938704}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{766D408B-1FEF-4F7C-9022-5221ACB8CEBF}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3761,7 +3761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F849CA5E-C20F-4619-A021-8439090D43B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E770D9B-0FD1-479B-A6D9-DE69CDEE4C07}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5056,7 +5056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49EFAD4-170B-4A90-AAB0-4DC09A812658}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CBD1F9-CE97-49DB-8EF9-01485214073B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6353,7 +6353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37179D25-D44F-4D8A-B8A5-070D0143F780}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5173B171-D2D6-4231-B2A5-01495EC61AF7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7638,7 +7638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD78F965-4C93-45D6-B593-BD6A68AEA52A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51D7F4D-375E-4A53-A353-7946480B9080}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
